--- a/PVT_Simulator/PVT_data.xlsx
+++ b/PVT_Simulator/PVT_data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intri\Desktop\PVT_Simulator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intri\Desktop\Project\FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4080" windowHeight="1695"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="166">
   <si>
     <t>WELLSTREAM</t>
   </si>
@@ -484,6 +484,51 @@
   </si>
   <si>
     <t>PTCMEdiagramt</t>
+  </si>
+  <si>
+    <t>Cplus</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.20 </t>
+  </si>
+  <si>
+    <t>3,390,000</t>
+  </si>
+  <si>
+    <t>0.039</t>
+  </si>
+  <si>
+    <t>Inj gas</t>
+  </si>
+  <si>
+    <t>composition</t>
+  </si>
+  <si>
+    <t>CH4</t>
+  </si>
+  <si>
+    <t>C2H6</t>
+  </si>
+  <si>
+    <t>C3H8</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>FLASH_single_component</t>
+  </si>
+  <si>
+    <t>ViscMethane</t>
+  </si>
+  <si>
+    <t>Viscmix</t>
+  </si>
+  <si>
+    <t>(Mpa)</t>
   </si>
 </sst>
 </file>
@@ -587,17 +632,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Centaur"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Centaur"/>
-      <family val="1"/>
+      <name val="Times"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1150,7 +1193,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1374,79 +1417,82 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="172" fontId="13" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="13" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="14" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="14" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1455,22 +1501,22 @@
     <xf numFmtId="167" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1850,11 +1896,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1932665184"/>
-        <c:axId val="-1932664640"/>
+        <c:axId val="-365343232"/>
+        <c:axId val="-365345408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1932665184"/>
+        <c:axId val="-365343232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1967,12 +2013,12 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1932664640"/>
+        <c:crossAx val="-365345408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1932664640"/>
+        <c:axId val="-365345408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2085,7 +2131,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1932665184"/>
+        <c:crossAx val="-365343232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2206,6 +2252,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2373,11 +2420,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1932664096"/>
-        <c:axId val="-1932658656"/>
+        <c:axId val="-365344864"/>
+        <c:axId val="-365343776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1932664096"/>
+        <c:axId val="-365344864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2423,6 +2470,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2489,12 +2537,12 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1932658656"/>
+        <c:crossAx val="-365343776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1932658656"/>
+        <c:axId val="-365343776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2540,6 +2588,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2606,7 +2655,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1932664096"/>
+        <c:crossAx val="-365344864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2849,11 +2898,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1932659200"/>
-        <c:axId val="-1932658112"/>
+        <c:axId val="-288046208"/>
+        <c:axId val="-288045664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1932659200"/>
+        <c:axId val="-288046208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2904,6 +2953,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2970,12 +3020,12 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1932658112"/>
+        <c:crossAx val="-288045664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1932658112"/>
+        <c:axId val="-288045664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3021,6 +3071,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3087,7 +3138,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1932659200"/>
+        <c:crossAx val="-288046208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4821,7 +4872,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4853,7 +4910,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4885,7 +4948,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4917,7 +4986,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4966,7 +5041,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5719,11 +5800,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -5748,6 +5829,10 @@
       <c r="I1" t="s">
         <v>2</v>
       </c>
+      <c r="K1">
+        <f>72.2+273.15</f>
+        <v>345.34999999999997</v>
+      </c>
     </row>
     <row r="2" spans="1:14" ht="15.75">
       <c r="A2" s="5" t="s">
@@ -6230,10 +6315,10 @@
       <c r="C16" s="20">
         <v>17.17810251947239</v>
       </c>
-      <c r="D16" s="114" t="s">
+      <c r="D16" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="115"/>
+      <c r="E16" s="116"/>
       <c r="F16" s="88">
         <v>12</v>
       </c>
@@ -6876,1532 +6961,1796 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AT44"/>
+  <dimension ref="B1:BI46"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="AD1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AS3" sqref="AS3"/>
+    <sheetView showGridLines="0" topLeftCell="AU1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BQ4" sqref="BQ4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="91"/>
-    <col min="2" max="2" width="8.140625" style="91" customWidth="1"/>
-    <col min="3" max="3" width="9" style="91" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="92" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="91" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="9.140625" style="91"/>
-    <col min="12" max="12" width="9.28515625" style="91" bestFit="1" customWidth="1"/>
-    <col min="13" max="20" width="9.140625" style="91"/>
-    <col min="21" max="21" width="9.28515625" style="91" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="9.140625" style="91"/>
-    <col min="24" max="24" width="9.5703125" style="91" bestFit="1" customWidth="1"/>
-    <col min="25" max="28" width="9.140625" style="91"/>
-    <col min="29" max="29" width="10" style="91" customWidth="1"/>
-    <col min="30" max="30" width="9.28515625" style="91" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.140625" style="91"/>
-    <col min="32" max="33" width="9.28515625" style="91" bestFit="1" customWidth="1"/>
-    <col min="34" max="36" width="9.140625" style="91"/>
-    <col min="37" max="37" width="14.85546875" style="91" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.5703125" style="91" bestFit="1" customWidth="1"/>
-    <col min="39" max="41" width="9.140625" style="91"/>
-    <col min="42" max="42" width="14.85546875" style="91" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.7109375" style="91" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="9.140625" style="91"/>
-    <col min="45" max="45" width="9.42578125" style="91" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.140625" style="91" bestFit="1" customWidth="1"/>
-    <col min="47" max="16384" width="9.140625" style="91"/>
+    <col min="1" max="1" width="9.140625" style="89"/>
+    <col min="2" max="2" width="8.140625" style="89" customWidth="1"/>
+    <col min="3" max="3" width="9" style="89" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="89" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="9.140625" style="89"/>
+    <col min="12" max="12" width="9.28515625" style="89" bestFit="1" customWidth="1"/>
+    <col min="13" max="20" width="9.140625" style="89"/>
+    <col min="21" max="21" width="9.28515625" style="89" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.140625" style="89"/>
+    <col min="24" max="24" width="9.5703125" style="89" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="9.140625" style="89"/>
+    <col min="28" max="28" width="3.28515625" style="89" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.5703125" style="89" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.85546875" style="89" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.85546875" style="89" customWidth="1"/>
+    <col min="32" max="32" width="4.42578125" style="89" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.85546875" style="89" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.5703125" style="89" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.28515625" style="89" customWidth="1"/>
+    <col min="36" max="38" width="9.140625" style="89"/>
+    <col min="39" max="39" width="14.85546875" style="89" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.5703125" style="89" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="9.140625" style="89"/>
+    <col min="43" max="43" width="8.140625" style="89" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.7109375" style="89" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11" style="89" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.140625" style="89"/>
+    <col min="47" max="47" width="12.7109375" style="89" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="22.28515625" style="89" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.140625" style="89"/>
+    <col min="50" max="50" width="10.7109375" style="89" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="4.7109375" style="89" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="4.42578125" style="89" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="4.7109375" style="89" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="5.7109375" style="89" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="5.5703125" style="89" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="6.28515625" style="89" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="5.7109375" style="89" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="9.140625" style="89"/>
+    <col min="60" max="60" width="10.7109375" style="89" bestFit="1" customWidth="1"/>
+    <col min="61" max="16384" width="9.140625" style="89"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:46" ht="14.25" thickBot="1"/>
-    <row r="2" spans="2:46">
-      <c r="B2" s="93" t="s">
+    <row r="1" spans="2:61" ht="13.5" thickBot="1">
+      <c r="G1" s="89" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="2:61">
+      <c r="B2" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="L2" s="93" t="s">
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="L2" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="95"/>
-      <c r="U2" s="93" t="s">
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="93"/>
+      <c r="U2" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="V2" s="94"/>
-      <c r="W2" s="94"/>
-      <c r="X2" s="94"/>
-      <c r="Y2" s="94"/>
-      <c r="Z2" s="95"/>
-    </row>
-    <row r="3" spans="2:46">
-      <c r="B3" s="117" t="s">
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="92"/>
+      <c r="Z2" s="93"/>
+    </row>
+    <row r="3" spans="2:61">
+      <c r="B3" s="118" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="119" t="s">
+      <c r="C3" s="120" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="97" t="s">
+      <c r="D3" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="89" t="s">
+      <c r="E3" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="89" t="s">
+      <c r="F3" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="98" t="s">
+      <c r="G3" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="L3" s="117" t="s">
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="L3" s="118" t="s">
         <v>113</v>
       </c>
-      <c r="M3" s="119" t="s">
+      <c r="M3" s="120" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="97" t="s">
+      <c r="N3" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="O3" s="89" t="s">
+      <c r="O3" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="P3" s="89" t="s">
+      <c r="P3" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="Q3" s="98" t="s">
+      <c r="Q3" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="U3" s="121" t="s">
+      <c r="U3" s="122" t="s">
         <v>113</v>
       </c>
-      <c r="V3" s="116" t="s">
+      <c r="V3" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="W3" s="97" t="s">
+      <c r="W3" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="X3" s="89" t="s">
+      <c r="X3" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="Y3" s="89" t="s">
+      <c r="Y3" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="Z3" s="98" t="s">
+      <c r="Z3" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="AB3" s="116" t="s">
+      <c r="AB3" s="117" t="s">
         <v>120</v>
       </c>
-      <c r="AC3" s="116"/>
-      <c r="AD3" s="116"/>
-      <c r="AE3" s="116"/>
-      <c r="AF3" s="116"/>
-      <c r="AG3" s="116"/>
-      <c r="AJ3" s="116" t="s">
+      <c r="AC3" s="117"/>
+      <c r="AD3" s="117"/>
+      <c r="AE3" s="117"/>
+      <c r="AF3" s="117"/>
+      <c r="AG3" s="117"/>
+      <c r="AH3" s="117"/>
+      <c r="AI3" s="98"/>
+      <c r="AL3" s="117" t="s">
         <v>121</v>
       </c>
-      <c r="AK3" s="116"/>
-      <c r="AL3" s="116"/>
-      <c r="AO3" s="116" t="s">
+      <c r="AM3" s="117"/>
+      <c r="AN3" s="117"/>
+      <c r="AQ3" s="117" t="s">
         <v>122</v>
       </c>
-      <c r="AP3" s="116"/>
-      <c r="AQ3" s="116"/>
-      <c r="AS3" s="89" t="s">
+      <c r="AR3" s="117"/>
+      <c r="AS3" s="117"/>
+      <c r="AU3" s="96" t="s">
         <v>141</v>
       </c>
-      <c r="AT3" s="89" t="s">
+      <c r="AV3" s="96" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="4" spans="2:46">
-      <c r="B4" s="118"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="97" t="s">
+      <c r="AX3" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY3" s="117" t="s">
+        <v>161</v>
+      </c>
+      <c r="AZ3" s="117"/>
+      <c r="BA3" s="117"/>
+      <c r="BB3" s="117"/>
+      <c r="BC3" s="117"/>
+      <c r="BD3" s="117"/>
+      <c r="BE3" s="117"/>
+      <c r="BF3" s="96"/>
+      <c r="BH3" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="BI3" s="96" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="2:61">
+      <c r="B4" s="119"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="89" t="s">
+      <c r="E4" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="89" t="s">
+      <c r="F4" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="98" t="s">
+      <c r="G4" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="120"/>
-      <c r="N4" s="97" t="s">
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="O4" s="89" t="s">
+      <c r="O4" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="Q4" s="98" t="s">
+      <c r="Q4" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="U4" s="121"/>
-      <c r="V4" s="116"/>
-      <c r="W4" s="97" t="s">
+      <c r="U4" s="122"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="X4" s="89" t="s">
+      <c r="X4" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="Y4" s="89" t="s">
+      <c r="Y4" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="Z4" s="98" t="s">
+      <c r="Z4" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="AB4" s="116" t="s">
+      <c r="AB4" s="117" t="s">
         <v>119</v>
       </c>
-      <c r="AC4" s="116"/>
-      <c r="AD4" s="116"/>
-      <c r="AE4" s="116" t="s">
+      <c r="AC4" s="117"/>
+      <c r="AD4" s="117"/>
+      <c r="AE4" s="117"/>
+      <c r="AF4" s="117" t="s">
         <v>118</v>
       </c>
-      <c r="AF4" s="116"/>
-      <c r="AG4" s="116"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="100" t="s">
+      <c r="AG4" s="117"/>
+      <c r="AH4" s="117"/>
+      <c r="AI4" s="99"/>
+      <c r="AL4" s="100"/>
+      <c r="AM4" s="101" t="s">
         <v>119</v>
       </c>
-      <c r="AL4" s="100" t="s">
+      <c r="AN4" s="101" t="s">
         <v>118</v>
       </c>
-      <c r="AO4" s="90"/>
-      <c r="AP4" s="100" t="s">
+      <c r="AQ4" s="100"/>
+      <c r="AR4" s="96" t="s">
         <v>119</v>
       </c>
-      <c r="AQ4" s="100" t="s">
+      <c r="AS4" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="AS4" s="90" t="s">
+      <c r="AU4" s="100" t="s">
         <v>128</v>
       </c>
-      <c r="AT4" s="90" t="s">
+      <c r="AV4" s="100" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="5" spans="2:46">
-      <c r="B5" s="101">
+      <c r="AX4" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="AY4" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ4" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="BA4" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="BB4" s="96" t="s">
+        <v>159</v>
+      </c>
+      <c r="BC4" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="BD4" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE4" s="96" t="s">
+        <v>63</v>
+      </c>
+      <c r="BF4" s="96" t="s">
+        <v>64</v>
+      </c>
+      <c r="BH4" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="BI4" s="96" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="2:61" ht="15" customHeight="1">
+      <c r="B5" s="102">
         <v>1</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="102"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="L5" s="101">
+      <c r="D5" s="103" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="104" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="100"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="L5" s="102">
         <v>1</v>
       </c>
-      <c r="M5" s="90" t="s">
+      <c r="M5" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="102"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="104"/>
-      <c r="U5" s="101">
+      <c r="N5" s="103"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="105"/>
+      <c r="U5" s="102">
         <v>1</v>
       </c>
-      <c r="V5" s="90" t="s">
+      <c r="V5" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="102"/>
-      <c r="X5" s="103" t="e">
+      <c r="W5" s="103"/>
+      <c r="X5" s="104" t="e">
         <f>AD5*10^7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Y5" s="90"/>
-      <c r="Z5" s="104"/>
-      <c r="AB5" s="89"/>
-      <c r="AC5" s="89" t="s">
+      <c r="Y5" s="100"/>
+      <c r="Z5" s="105"/>
+      <c r="AB5" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC5" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="AD5" s="89" t="s">
+      <c r="AD5" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="AE5" s="89"/>
-      <c r="AF5" s="89" t="s">
+      <c r="AE5" s="96" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF5" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="AG5" s="89" t="s">
+      <c r="AG5" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="AI5" s="91" t="s">
+      <c r="AH5" s="96" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI5" s="94"/>
+      <c r="AJ5" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="AJ5" s="90" t="s">
+      <c r="AK5" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="AK5" s="90">
+      <c r="AL5" s="100">
         <v>11.359500000000001</v>
       </c>
-      <c r="AL5" s="90"/>
-      <c r="AN5" s="91" t="s">
+      <c r="AM5" s="100"/>
+      <c r="AO5" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="AO5" s="90" t="s">
+      <c r="AQ5" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="AP5" s="90">
+      <c r="AR5" s="100">
         <v>0.98309999999999997</v>
       </c>
-      <c r="AQ5" s="90">
-        <f>AP5*1.2</f>
-        <v>1.1797199999999999</v>
-      </c>
-      <c r="AS5" s="90" t="s">
+      <c r="AS5" s="100">
+        <f>AR5*2</f>
+        <v>1.9661999999999999</v>
+      </c>
+      <c r="AU5" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="AT5" s="90" t="s">
+      <c r="AV5" s="100" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="6" spans="2:46">
-      <c r="B6" s="101">
+      <c r="AX5" s="96">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="100">
+        <v>100</v>
+      </c>
+      <c r="AZ5" s="100"/>
+      <c r="BA5" s="100"/>
+      <c r="BB5" s="100"/>
+      <c r="BC5" s="100"/>
+      <c r="BD5" s="100"/>
+      <c r="BE5" s="100"/>
+      <c r="BF5" s="100"/>
+      <c r="BH5" s="96">
+        <v>1</v>
+      </c>
+      <c r="BI5" s="100">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:61">
+      <c r="B6" s="102">
         <v>2</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="102"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="L6" s="101">
+      <c r="D6" s="103"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="L6" s="102">
         <v>2</v>
       </c>
-      <c r="M6" s="90" t="s">
+      <c r="M6" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="102"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="104"/>
-      <c r="U6" s="101">
+      <c r="N6" s="103"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="100"/>
+      <c r="Q6" s="105"/>
+      <c r="U6" s="102">
         <v>2</v>
       </c>
-      <c r="V6" s="90" t="s">
+      <c r="V6" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="W6" s="102"/>
-      <c r="X6" s="103" t="e">
+      <c r="W6" s="103"/>
+      <c r="X6" s="104" t="e">
         <f>#REF!*10^7</f>
         <v>#REF!</v>
       </c>
-      <c r="Y6" s="90"/>
-      <c r="Z6" s="104"/>
-      <c r="AB6" s="89" t="s">
+      <c r="Y6" s="100"/>
+      <c r="Z6" s="105"/>
+      <c r="AB6" s="117"/>
+      <c r="AC6" s="100">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="100">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="100" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF6" s="100">
+        <v>0.02</v>
+      </c>
+      <c r="AG6" s="100">
+        <v>0.12</v>
+      </c>
+      <c r="AH6" s="100" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI6" s="94"/>
+      <c r="AJ6" s="89" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK6" s="100" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL6" s="100">
+        <v>37.789700000000003</v>
+      </c>
+      <c r="AM6" s="100"/>
+      <c r="AO6" s="89" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ6" s="100" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR6" s="100">
+        <v>1.1865000000000001</v>
+      </c>
+      <c r="AS6" s="100">
+        <f>AR6*2</f>
+        <v>2.3730000000000002</v>
+      </c>
+      <c r="AU6" s="100" t="s">
+        <v>130</v>
+      </c>
+      <c r="AV6" s="100" t="s">
+        <v>136</v>
+      </c>
+      <c r="AX6" s="96">
+        <v>2</v>
+      </c>
+      <c r="AY6" s="100">
+        <v>50</v>
+      </c>
+      <c r="AZ6" s="100"/>
+      <c r="BA6" s="100">
+        <v>50</v>
+      </c>
+      <c r="BB6" s="100"/>
+      <c r="BC6" s="100"/>
+      <c r="BD6" s="100"/>
+      <c r="BE6" s="100"/>
+      <c r="BF6" s="100"/>
+      <c r="BH6" s="96">
+        <v>2</v>
+      </c>
+      <c r="BI6" s="100">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:61">
+      <c r="B7" s="102">
+        <v>3</v>
+      </c>
+      <c r="C7" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="AC6" s="90">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="90">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="89" t="s">
+      <c r="D7" s="103"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="L7" s="102">
+        <v>3</v>
+      </c>
+      <c r="M7" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="AF6" s="90">
-        <v>0.02</v>
-      </c>
-      <c r="AG6" s="90">
-        <v>0.12</v>
-      </c>
-      <c r="AI6" s="91" t="s">
-        <v>125</v>
-      </c>
-      <c r="AJ6" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="AK6" s="90">
-        <v>37.789700000000003</v>
-      </c>
-      <c r="AL6" s="90"/>
-      <c r="AN6" s="91" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO6" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="AP6" s="90">
-        <v>1.1865000000000001</v>
-      </c>
-      <c r="AQ6" s="90">
-        <f t="shared" ref="AQ6:AQ7" si="0">AP6*1.2</f>
-        <v>1.4238000000000002</v>
-      </c>
-      <c r="AS6" s="90" t="s">
-        <v>130</v>
-      </c>
-      <c r="AT6" s="90" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="2:46">
-      <c r="B7" s="101">
+      <c r="N7" s="103"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="105"/>
+      <c r="U7" s="102">
         <v>3</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="V7" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="102"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="L7" s="101">
-        <v>3</v>
-      </c>
-      <c r="M7" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" s="102"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="104"/>
-      <c r="U7" s="101">
-        <v>3</v>
-      </c>
-      <c r="V7" s="105" t="s">
-        <v>23</v>
-      </c>
-      <c r="W7" s="102"/>
-      <c r="X7" s="103" t="e">
+      <c r="W7" s="103"/>
+      <c r="X7" s="104" t="e">
         <f>#REF!*10^7</f>
         <v>#REF!</v>
       </c>
-      <c r="Y7" s="90"/>
-      <c r="Z7" s="104"/>
-      <c r="AI7" s="91" t="s">
+      <c r="Y7" s="100"/>
+      <c r="Z7" s="105"/>
+      <c r="AK7" s="89" t="s">
         <v>126</v>
       </c>
-      <c r="AJ7" s="90" t="s">
+      <c r="AL7" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="AK7" s="90">
+      <c r="AM7" s="100">
         <v>22.778099999999998</v>
       </c>
-      <c r="AL7" s="90"/>
-      <c r="AN7" s="91" t="s">
+      <c r="AN7" s="100"/>
+      <c r="AP7" s="89" t="s">
         <v>126</v>
       </c>
-      <c r="AO7" s="90" t="s">
+      <c r="AQ7" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="AP7" s="90">
+      <c r="AR7" s="100">
         <v>1.2192000000000001</v>
       </c>
-      <c r="AQ7" s="90">
-        <f t="shared" si="0"/>
-        <v>1.4630400000000001</v>
-      </c>
-      <c r="AS7" s="90" t="s">
+      <c r="AS7" s="100">
+        <f>AR7*2</f>
+        <v>2.4384000000000001</v>
+      </c>
+      <c r="AU7" s="100" t="s">
         <v>131</v>
       </c>
-      <c r="AT7" s="90" t="s">
+      <c r="AV7" s="100" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="8" spans="2:46">
-      <c r="B8" s="101">
+      <c r="AX7" s="96">
+        <v>3</v>
+      </c>
+      <c r="AY7" s="100">
+        <v>22</v>
+      </c>
+      <c r="AZ7" s="100"/>
+      <c r="BA7" s="100">
+        <v>38</v>
+      </c>
+      <c r="BB7" s="100">
+        <v>20</v>
+      </c>
+      <c r="BC7" s="100">
+        <v>20</v>
+      </c>
+      <c r="BD7" s="100"/>
+      <c r="BE7" s="100"/>
+      <c r="BF7" s="100"/>
+      <c r="BH7" s="96">
+        <v>3</v>
+      </c>
+      <c r="BI7" s="100">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:61">
+      <c r="B8" s="102">
         <v>4</v>
       </c>
-      <c r="C8" s="90" t="s">
+      <c r="C8" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="102"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="L8" s="101">
+      <c r="D8" s="103"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="L8" s="102">
         <v>4</v>
       </c>
-      <c r="M8" s="90" t="s">
+      <c r="M8" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="102"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="104"/>
-      <c r="U8" s="101">
+      <c r="N8" s="103"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="100"/>
+      <c r="Q8" s="105"/>
+      <c r="U8" s="102">
         <v>4</v>
       </c>
-      <c r="V8" s="105" t="s">
+      <c r="V8" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="W8" s="102"/>
-      <c r="X8" s="103">
+      <c r="W8" s="103"/>
+      <c r="X8" s="104">
         <f>AD6*10^7</f>
         <v>0</v>
       </c>
-      <c r="Y8" s="90"/>
-      <c r="Z8" s="104"/>
-      <c r="AS8" s="90" t="s">
+      <c r="Y8" s="100"/>
+      <c r="Z8" s="105"/>
+      <c r="AU8" s="100" t="s">
         <v>132</v>
       </c>
-      <c r="AT8" s="90" t="s">
+      <c r="AV8" s="100" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="9" spans="2:46">
-      <c r="B9" s="101">
+      <c r="AX8" s="96">
+        <v>4</v>
+      </c>
+      <c r="AY8" s="100">
+        <v>0.36</v>
+      </c>
+      <c r="AZ8" s="100">
+        <v>1.98</v>
+      </c>
+      <c r="BA8" s="100">
+        <v>60.1</v>
+      </c>
+      <c r="BB8" s="100"/>
+      <c r="BC8" s="100"/>
+      <c r="BD8" s="100">
+        <v>30.33</v>
+      </c>
+      <c r="BE8" s="100">
+        <v>6.78</v>
+      </c>
+      <c r="BF8" s="100">
+        <v>0.42</v>
+      </c>
+      <c r="BH8" s="96">
+        <v>4</v>
+      </c>
+      <c r="BI8" s="100">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:61">
+      <c r="B9" s="102">
         <v>5</v>
       </c>
-      <c r="C9" s="90" t="s">
+      <c r="C9" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="102"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
-      <c r="L9" s="101">
+      <c r="D9" s="103"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="L9" s="102">
         <v>5</v>
       </c>
-      <c r="M9" s="90" t="s">
+      <c r="M9" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="102"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="104"/>
-      <c r="U9" s="101">
+      <c r="N9" s="103"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="105"/>
+      <c r="U9" s="102">
         <v>5</v>
       </c>
-      <c r="V9" s="105" t="s">
+      <c r="V9" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="W9" s="102"/>
-      <c r="X9" s="103">
+      <c r="W9" s="103"/>
+      <c r="X9" s="104">
         <f>AD7*10^7</f>
         <v>0</v>
       </c>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="104"/>
-      <c r="AS9" s="90" t="s">
+      <c r="Y9" s="100"/>
+      <c r="Z9" s="105"/>
+      <c r="AF9" s="94"/>
+      <c r="AG9" s="94"/>
+      <c r="AH9" s="94"/>
+      <c r="AI9" s="94"/>
+      <c r="AU9" s="100" t="s">
         <v>133</v>
       </c>
-      <c r="AT9" s="90" t="s">
+      <c r="AV9" s="100" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="2:46">
-      <c r="B10" s="101">
+    <row r="10" spans="2:61">
+      <c r="B10" s="102">
         <v>6</v>
       </c>
-      <c r="C10" s="90" t="s">
+      <c r="C10" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="102"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="L10" s="101">
+      <c r="D10" s="103"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="L10" s="102">
         <v>6</v>
       </c>
-      <c r="M10" s="90" t="s">
+      <c r="M10" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="102"/>
-      <c r="O10" s="103"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="104"/>
-      <c r="U10" s="101">
+      <c r="N10" s="103"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="105"/>
+      <c r="U10" s="102">
         <v>6</v>
       </c>
-      <c r="V10" s="105" t="s">
+      <c r="V10" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="W10" s="102"/>
-      <c r="X10" s="103">
+      <c r="W10" s="103"/>
+      <c r="X10" s="104">
         <f>AD8*10^7</f>
         <v>0</v>
       </c>
-      <c r="Y10" s="90"/>
-      <c r="Z10" s="104"/>
-      <c r="AE10" s="100"/>
-      <c r="AF10" s="100"/>
-      <c r="AG10" s="100"/>
-      <c r="AS10" s="90" t="s">
+      <c r="Y10" s="100"/>
+      <c r="Z10" s="105"/>
+      <c r="AF10" s="99"/>
+      <c r="AG10" s="99"/>
+      <c r="AH10" s="99"/>
+      <c r="AI10" s="99"/>
+      <c r="AU10" s="100" t="s">
         <v>143</v>
       </c>
-      <c r="AT10" s="90" t="s">
+      <c r="AV10" s="100" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="2:46">
-      <c r="B11" s="101">
+    <row r="11" spans="2:61">
+      <c r="B11" s="102">
         <v>7</v>
       </c>
-      <c r="C11" s="90" t="s">
+      <c r="C11" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="102"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="96"/>
-      <c r="L11" s="101">
+      <c r="D11" s="103"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="L11" s="102">
         <v>7</v>
       </c>
-      <c r="M11" s="90" t="s">
+      <c r="M11" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="102"/>
-      <c r="O11" s="103"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="104"/>
-      <c r="U11" s="101">
+      <c r="N11" s="103"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="100"/>
+      <c r="Q11" s="105"/>
+      <c r="U11" s="102">
         <v>7</v>
       </c>
-      <c r="V11" s="105" t="s">
+      <c r="V11" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="W11" s="102"/>
-      <c r="X11" s="103">
+      <c r="W11" s="103"/>
+      <c r="X11" s="104">
         <f>AD9*10^7</f>
         <v>0</v>
       </c>
-      <c r="Y11" s="90"/>
-      <c r="Z11" s="104"/>
-      <c r="AF11" s="100"/>
-      <c r="AG11" s="100"/>
-      <c r="AT11" s="90" t="s">
+      <c r="Y11" s="100"/>
+      <c r="Z11" s="105"/>
+      <c r="AF11" s="94"/>
+      <c r="AG11" s="99"/>
+      <c r="AH11" s="99"/>
+      <c r="AI11" s="99"/>
+      <c r="AV11" s="100" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="2:46">
-      <c r="B12" s="101">
+    <row r="12" spans="2:61">
+      <c r="B12" s="102">
         <v>8</v>
       </c>
-      <c r="C12" s="90" t="s">
+      <c r="C12" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="102"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="L12" s="101">
+      <c r="D12" s="103"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="L12" s="102">
         <v>8</v>
       </c>
-      <c r="M12" s="90" t="s">
+      <c r="M12" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="N12" s="102"/>
-      <c r="O12" s="103"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="104"/>
-      <c r="U12" s="101">
+      <c r="N12" s="103"/>
+      <c r="O12" s="104"/>
+      <c r="P12" s="100"/>
+      <c r="Q12" s="105"/>
+      <c r="U12" s="102">
         <v>8</v>
       </c>
-      <c r="V12" s="105" t="s">
+      <c r="V12" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="W12" s="102"/>
-      <c r="X12" s="103">
-        <f>AL3*10^7</f>
+      <c r="W12" s="103"/>
+      <c r="X12" s="104">
+        <f>AN3*10^7</f>
         <v>0</v>
       </c>
-      <c r="Y12" s="90"/>
-      <c r="Z12" s="104"/>
-      <c r="AT12" s="90" t="s">
+      <c r="Y12" s="100"/>
+      <c r="Z12" s="105"/>
+      <c r="AF12" s="94"/>
+      <c r="AG12" s="94"/>
+      <c r="AH12" s="94"/>
+      <c r="AI12" s="94"/>
+      <c r="AV12" s="100" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="2:46">
-      <c r="B13" s="101">
+    <row r="13" spans="2:61">
+      <c r="B13" s="102"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="104"/>
+      <c r="P13" s="100"/>
+      <c r="Q13" s="105"/>
+      <c r="U13" s="102"/>
+      <c r="V13" s="106"/>
+      <c r="W13" s="103"/>
+      <c r="X13" s="104"/>
+      <c r="Y13" s="100"/>
+      <c r="Z13" s="105"/>
+      <c r="AF13" s="94"/>
+      <c r="AG13" s="94"/>
+      <c r="AH13" s="94"/>
+      <c r="AI13" s="94"/>
+      <c r="AV13" s="100" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="2:61">
+      <c r="B14" s="102"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="103"/>
+      <c r="O14" s="104"/>
+      <c r="P14" s="100"/>
+      <c r="Q14" s="105"/>
+      <c r="U14" s="102"/>
+      <c r="V14" s="106"/>
+      <c r="W14" s="103"/>
+      <c r="X14" s="104"/>
+      <c r="Y14" s="100"/>
+      <c r="Z14" s="105"/>
+      <c r="AF14" s="94"/>
+      <c r="AG14" s="94"/>
+      <c r="AH14" s="94"/>
+      <c r="AI14" s="94"/>
+      <c r="AV14" s="100" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="2:61">
+      <c r="B15" s="102">
         <v>9</v>
       </c>
-      <c r="C13" s="90" t="s">
+      <c r="C15" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="102"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="96"/>
-      <c r="L13" s="101">
+      <c r="D15" s="103"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="L15" s="102">
         <v>9</v>
       </c>
-      <c r="M13" s="90" t="s">
+      <c r="M15" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="102"/>
-      <c r="O13" s="103"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="104"/>
-      <c r="U13" s="101">
+      <c r="N15" s="103"/>
+      <c r="O15" s="104"/>
+      <c r="P15" s="100"/>
+      <c r="Q15" s="105"/>
+      <c r="U15" s="102">
         <v>9</v>
       </c>
-      <c r="V13" s="105" t="s">
+      <c r="V15" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="W13" s="102"/>
-      <c r="X13" s="103" t="e">
+      <c r="W15" s="103"/>
+      <c r="X15" s="104" t="e">
         <f>#REF!*10^7</f>
         <v>#REF!</v>
       </c>
-      <c r="Y13" s="90"/>
-      <c r="Z13" s="104"/>
-      <c r="AT13" s="90" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="2:46" ht="14.25" thickBot="1">
-      <c r="B14" s="101">
+      <c r="Y15" s="100"/>
+      <c r="Z15" s="105"/>
+      <c r="AF15" s="94"/>
+      <c r="AG15" s="94"/>
+      <c r="AH15" s="94"/>
+      <c r="AI15" s="94"/>
+      <c r="AV15" s="100" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="2:61" ht="13.5" thickBot="1">
+      <c r="B16" s="102">
         <v>10</v>
       </c>
-      <c r="C14" s="90" t="s">
+      <c r="C16" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="102"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="96"/>
-      <c r="L14" s="101">
+      <c r="D16" s="103"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="L16" s="102">
         <v>10</v>
       </c>
-      <c r="M14" s="90" t="s">
+      <c r="M16" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="N14" s="102"/>
-      <c r="O14" s="103"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="104"/>
-      <c r="U14" s="106">
+      <c r="N16" s="103"/>
+      <c r="O16" s="104"/>
+      <c r="P16" s="100"/>
+      <c r="Q16" s="105"/>
+      <c r="U16" s="107">
         <v>10</v>
       </c>
-      <c r="V14" s="107" t="s">
+      <c r="V16" s="108" t="s">
         <v>116</v>
       </c>
-      <c r="W14" s="108"/>
-      <c r="X14" s="109">
-        <f>AL5*10^7</f>
+      <c r="W16" s="109"/>
+      <c r="X16" s="110">
+        <f>AM5*10^7</f>
         <v>0</v>
       </c>
-      <c r="Y14" s="110"/>
-      <c r="Z14" s="111"/>
-      <c r="AT14" s="90" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="2:46">
-      <c r="B15" s="101">
+      <c r="Y16" s="111"/>
+      <c r="Z16" s="112"/>
+      <c r="AV16" s="100" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="2:48">
+      <c r="B17" s="102">
         <v>11</v>
       </c>
-      <c r="C15" s="90" t="s">
+      <c r="C17" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="102"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="96"/>
-      <c r="L15" s="101">
+      <c r="D17" s="103"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="L17" s="102">
         <v>11</v>
       </c>
-      <c r="M15" s="90" t="s">
+      <c r="M17" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="N15" s="102"/>
-      <c r="O15" s="103"/>
-      <c r="P15" s="90"/>
-      <c r="Q15" s="104"/>
-      <c r="U15" s="96"/>
-      <c r="V15" s="96"/>
-      <c r="W15" s="112"/>
-      <c r="X15" s="113"/>
-      <c r="Y15" s="96"/>
-      <c r="Z15" s="96"/>
-      <c r="AT15" s="90" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="2:46">
-      <c r="B16" s="101">
+      <c r="N17" s="103"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="100"/>
+      <c r="Q17" s="105"/>
+      <c r="U17" s="94"/>
+      <c r="V17" s="94"/>
+      <c r="W17" s="113"/>
+      <c r="X17" s="114"/>
+      <c r="Y17" s="94"/>
+      <c r="Z17" s="94"/>
+      <c r="AV17" s="100" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="2:48">
+      <c r="B18" s="102">
         <v>12</v>
       </c>
-      <c r="C16" s="90" t="s">
+      <c r="C18" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="102"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="96"/>
-      <c r="L16" s="101">
+      <c r="D18" s="103"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="L18" s="102">
         <v>12</v>
       </c>
-      <c r="M16" s="90" t="s">
+      <c r="M18" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="N16" s="102"/>
-      <c r="O16" s="103"/>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="104"/>
-      <c r="U16" s="96"/>
-      <c r="V16" s="96"/>
-      <c r="W16" s="112"/>
-      <c r="X16" s="113"/>
-      <c r="Y16" s="96"/>
-      <c r="Z16" s="96"/>
-      <c r="AT16" s="90" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="2:46">
-      <c r="B17" s="101">
+      <c r="N18" s="103"/>
+      <c r="O18" s="104"/>
+      <c r="P18" s="100"/>
+      <c r="Q18" s="105"/>
+      <c r="U18" s="94"/>
+      <c r="V18" s="94"/>
+      <c r="W18" s="113"/>
+      <c r="X18" s="114"/>
+      <c r="Y18" s="94"/>
+      <c r="Z18" s="94"/>
+      <c r="AV18" s="100" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="2:48">
+      <c r="B19" s="102">
         <v>13</v>
       </c>
-      <c r="C17" s="90" t="s">
+      <c r="C19" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="102"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="L17" s="101">
+      <c r="D19" s="103"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="L19" s="102">
         <v>13</v>
       </c>
-      <c r="M17" s="90" t="s">
+      <c r="M19" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="N17" s="102"/>
-      <c r="O17" s="103"/>
-      <c r="P17" s="90"/>
-      <c r="Q17" s="104"/>
-      <c r="U17" s="96"/>
-      <c r="V17" s="96"/>
-      <c r="W17" s="112"/>
-      <c r="X17" s="113"/>
-      <c r="Y17" s="96"/>
-      <c r="Z17" s="96"/>
-      <c r="AT17" s="90" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="2:46">
-      <c r="B18" s="101">
+      <c r="N19" s="103"/>
+      <c r="O19" s="104"/>
+      <c r="P19" s="100"/>
+      <c r="Q19" s="105"/>
+      <c r="U19" s="94"/>
+      <c r="V19" s="94"/>
+      <c r="W19" s="113"/>
+      <c r="X19" s="114"/>
+      <c r="Y19" s="94"/>
+      <c r="Z19" s="94"/>
+      <c r="AV19" s="100" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="2:48">
+      <c r="B20" s="102">
         <v>14</v>
       </c>
-      <c r="C18" s="90" t="s">
+      <c r="C20" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="102"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="L18" s="101">
+      <c r="D20" s="103"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="L20" s="102">
         <v>14</v>
       </c>
-      <c r="M18" s="90" t="s">
+      <c r="M20" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="N18" s="102"/>
-      <c r="O18" s="103"/>
-      <c r="P18" s="90"/>
-      <c r="Q18" s="104"/>
-      <c r="U18" s="96"/>
-      <c r="V18" s="96"/>
-      <c r="W18" s="112"/>
-      <c r="X18" s="113"/>
-      <c r="Y18" s="96"/>
-      <c r="Z18" s="96"/>
-    </row>
-    <row r="19" spans="2:46">
-      <c r="B19" s="101">
+      <c r="N20" s="103"/>
+      <c r="O20" s="104"/>
+      <c r="P20" s="100"/>
+      <c r="Q20" s="105"/>
+      <c r="U20" s="94"/>
+      <c r="V20" s="94"/>
+      <c r="W20" s="113"/>
+      <c r="X20" s="114"/>
+      <c r="Y20" s="94"/>
+      <c r="Z20" s="94"/>
+      <c r="AV20" s="100" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="2:48">
+      <c r="B21" s="102">
         <v>15</v>
       </c>
-      <c r="C19" s="90" t="s">
+      <c r="C21" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="102"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="L19" s="101">
+      <c r="D21" s="103"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="L21" s="102">
         <v>15</v>
       </c>
-      <c r="M19" s="90" t="s">
+      <c r="M21" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="N19" s="102"/>
-      <c r="O19" s="103"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="104"/>
-      <c r="U19" s="96"/>
-      <c r="V19" s="96"/>
-      <c r="W19" s="112"/>
-      <c r="X19" s="113"/>
-      <c r="Y19" s="96"/>
-      <c r="Z19" s="96"/>
-    </row>
-    <row r="20" spans="2:46">
-      <c r="B20" s="101">
+      <c r="N21" s="103"/>
+      <c r="O21" s="104"/>
+      <c r="P21" s="100"/>
+      <c r="Q21" s="105"/>
+      <c r="U21" s="94"/>
+      <c r="V21" s="94"/>
+      <c r="W21" s="113"/>
+      <c r="X21" s="114"/>
+      <c r="Y21" s="94"/>
+      <c r="Z21" s="94"/>
+    </row>
+    <row r="22" spans="2:48">
+      <c r="B22" s="102">
         <v>16</v>
       </c>
-      <c r="C20" s="90" t="s">
+      <c r="C22" s="100" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="102"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="L20" s="101">
+      <c r="D22" s="103"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="L22" s="102">
         <v>16</v>
       </c>
-      <c r="M20" s="90" t="s">
+      <c r="M22" s="100" t="s">
         <v>88</v>
       </c>
-      <c r="N20" s="102"/>
-      <c r="O20" s="103"/>
-      <c r="P20" s="90"/>
-      <c r="Q20" s="104"/>
-      <c r="U20" s="96"/>
-      <c r="V20" s="96"/>
-      <c r="W20" s="112"/>
-      <c r="X20" s="113"/>
-      <c r="Y20" s="96"/>
-      <c r="Z20" s="96"/>
-    </row>
-    <row r="21" spans="2:46">
-      <c r="B21" s="101">
+      <c r="N22" s="103"/>
+      <c r="O22" s="104"/>
+      <c r="P22" s="100"/>
+      <c r="Q22" s="105"/>
+      <c r="U22" s="94"/>
+      <c r="V22" s="94"/>
+      <c r="W22" s="113"/>
+      <c r="X22" s="114"/>
+      <c r="Y22" s="94"/>
+      <c r="Z22" s="94"/>
+    </row>
+    <row r="23" spans="2:48">
+      <c r="B23" s="102">
         <v>17</v>
       </c>
-      <c r="C21" s="90" t="s">
+      <c r="C23" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="102"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="L21" s="101">
+      <c r="D23" s="103"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="L23" s="102">
         <v>17</v>
       </c>
-      <c r="M21" s="90" t="s">
+      <c r="M23" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="N21" s="102"/>
-      <c r="O21" s="103"/>
-      <c r="P21" s="90"/>
-      <c r="Q21" s="104"/>
-      <c r="U21" s="96"/>
-      <c r="V21" s="96"/>
-      <c r="W21" s="112"/>
-      <c r="X21" s="113"/>
-      <c r="Y21" s="96"/>
-      <c r="Z21" s="96"/>
-    </row>
-    <row r="22" spans="2:46">
-      <c r="B22" s="101">
+      <c r="N23" s="103"/>
+      <c r="O23" s="104"/>
+      <c r="P23" s="100"/>
+      <c r="Q23" s="105"/>
+      <c r="U23" s="94"/>
+      <c r="V23" s="94"/>
+      <c r="W23" s="113"/>
+      <c r="X23" s="114"/>
+      <c r="Y23" s="94"/>
+      <c r="Z23" s="94"/>
+    </row>
+    <row r="24" spans="2:48">
+      <c r="B24" s="102">
         <v>18</v>
       </c>
-      <c r="C22" s="90" t="s">
+      <c r="C24" s="100" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="102"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="L22" s="101">
+      <c r="D24" s="103"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="94"/>
+      <c r="L24" s="102">
         <v>18</v>
       </c>
-      <c r="M22" s="90" t="s">
+      <c r="M24" s="100" t="s">
         <v>90</v>
       </c>
-      <c r="N22" s="102"/>
-      <c r="O22" s="103"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="104"/>
-      <c r="U22" s="96"/>
-      <c r="V22" s="96"/>
-      <c r="W22" s="112"/>
-      <c r="X22" s="113"/>
-      <c r="Y22" s="96"/>
-      <c r="Z22" s="96"/>
-    </row>
-    <row r="23" spans="2:46">
-      <c r="B23" s="101">
+      <c r="N24" s="103"/>
+      <c r="O24" s="104"/>
+      <c r="P24" s="100"/>
+      <c r="Q24" s="105"/>
+      <c r="U24" s="94"/>
+      <c r="V24" s="94"/>
+      <c r="W24" s="113"/>
+      <c r="X24" s="114"/>
+      <c r="Y24" s="94"/>
+      <c r="Z24" s="94"/>
+    </row>
+    <row r="25" spans="2:48">
+      <c r="B25" s="102">
         <v>19</v>
       </c>
-      <c r="C23" s="90" t="s">
+      <c r="C25" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="102"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="96"/>
-      <c r="L23" s="101">
+      <c r="D25" s="103"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+      <c r="L25" s="102">
         <v>19</v>
       </c>
-      <c r="M23" s="90" t="s">
+      <c r="M25" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="N23" s="102"/>
-      <c r="O23" s="103"/>
-      <c r="P23" s="90"/>
-      <c r="Q23" s="104"/>
-      <c r="U23" s="96"/>
-      <c r="V23" s="96"/>
-      <c r="W23" s="112"/>
-      <c r="X23" s="113"/>
-      <c r="Y23" s="96"/>
-      <c r="Z23" s="96"/>
-    </row>
-    <row r="24" spans="2:46" ht="14.25" thickBot="1">
-      <c r="B24" s="101">
+      <c r="N25" s="103"/>
+      <c r="O25" s="104"/>
+      <c r="P25" s="100"/>
+      <c r="Q25" s="105"/>
+      <c r="U25" s="94"/>
+      <c r="V25" s="94"/>
+      <c r="W25" s="113"/>
+      <c r="X25" s="114"/>
+      <c r="Y25" s="94"/>
+      <c r="Z25" s="94"/>
+    </row>
+    <row r="26" spans="2:48" ht="13.5" thickBot="1">
+      <c r="B26" s="102">
         <v>20</v>
       </c>
-      <c r="C24" s="90" t="s">
+      <c r="C26" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="102"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="96"/>
-      <c r="J24" s="96"/>
-      <c r="L24" s="106">
+      <c r="D26" s="103"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
+      <c r="L26" s="107">
         <v>20</v>
       </c>
-      <c r="M24" s="110" t="s">
+      <c r="M26" s="111" t="s">
         <v>117</v>
       </c>
-      <c r="N24" s="108"/>
-      <c r="O24" s="109"/>
-      <c r="P24" s="110"/>
-      <c r="Q24" s="111"/>
-      <c r="U24" s="96"/>
-      <c r="V24" s="96"/>
-      <c r="W24" s="112"/>
-      <c r="X24" s="113"/>
-      <c r="Y24" s="96"/>
-      <c r="Z24" s="96"/>
-    </row>
-    <row r="25" spans="2:46">
-      <c r="B25" s="101">
+      <c r="N26" s="109"/>
+      <c r="O26" s="110"/>
+      <c r="P26" s="111"/>
+      <c r="Q26" s="112"/>
+      <c r="U26" s="94"/>
+      <c r="V26" s="94"/>
+      <c r="W26" s="113"/>
+      <c r="X26" s="114"/>
+      <c r="Y26" s="94"/>
+      <c r="Z26" s="94"/>
+    </row>
+    <row r="27" spans="2:48">
+      <c r="B27" s="102">
         <v>21</v>
       </c>
-      <c r="C25" s="90" t="s">
+      <c r="C27" s="100" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="102"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="96"/>
-      <c r="J25" s="96"/>
-      <c r="L25" s="96"/>
-      <c r="M25" s="96"/>
-      <c r="N25" s="112"/>
-      <c r="O25" s="113"/>
-      <c r="P25" s="96"/>
-      <c r="Q25" s="96"/>
-      <c r="R25" s="96"/>
-    </row>
-    <row r="26" spans="2:46">
-      <c r="B26" s="101">
+      <c r="D27" s="103"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="113"/>
+      <c r="O27" s="114"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="94"/>
+      <c r="R27" s="94"/>
+    </row>
+    <row r="28" spans="2:48">
+      <c r="B28" s="102">
         <v>22</v>
       </c>
-      <c r="C26" s="90" t="s">
+      <c r="C28" s="100" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="102"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="96"/>
-      <c r="J26" s="96"/>
-      <c r="L26" s="96"/>
-      <c r="M26" s="96"/>
-      <c r="N26" s="112"/>
-      <c r="O26" s="113"/>
-      <c r="P26" s="96"/>
-      <c r="Q26" s="96"/>
-      <c r="R26" s="96"/>
-    </row>
-    <row r="27" spans="2:46">
-      <c r="B27" s="101">
+      <c r="D28" s="103"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="94"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="113"/>
+      <c r="O28" s="114"/>
+      <c r="P28" s="94"/>
+      <c r="Q28" s="94"/>
+      <c r="R28" s="94"/>
+    </row>
+    <row r="29" spans="2:48">
+      <c r="B29" s="102">
         <v>23</v>
       </c>
-      <c r="C27" s="90" t="s">
+      <c r="C29" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="102"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="96"/>
-      <c r="J27" s="96"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="96"/>
-      <c r="N27" s="112"/>
-      <c r="O27" s="113"/>
-      <c r="P27" s="96"/>
-      <c r="Q27" s="96"/>
-      <c r="R27" s="96"/>
-    </row>
-    <row r="28" spans="2:46">
-      <c r="B28" s="101">
+      <c r="D29" s="103"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
+      <c r="L29" s="94"/>
+      <c r="M29" s="94"/>
+      <c r="N29" s="113"/>
+      <c r="O29" s="114"/>
+      <c r="P29" s="94"/>
+      <c r="Q29" s="94"/>
+      <c r="R29" s="94"/>
+    </row>
+    <row r="30" spans="2:48">
+      <c r="B30" s="102">
         <v>24</v>
       </c>
-      <c r="C28" s="90" t="s">
+      <c r="C30" s="100" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="102"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="96"/>
-      <c r="N28" s="112"/>
-      <c r="O28" s="113"/>
-      <c r="P28" s="96"/>
-      <c r="Q28" s="96"/>
-      <c r="R28" s="96"/>
-    </row>
-    <row r="29" spans="2:46">
-      <c r="B29" s="101">
+      <c r="D30" s="103"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="94"/>
+      <c r="L30" s="94"/>
+      <c r="M30" s="94"/>
+      <c r="N30" s="113"/>
+      <c r="O30" s="114"/>
+      <c r="P30" s="94"/>
+      <c r="Q30" s="94"/>
+      <c r="R30" s="94"/>
+    </row>
+    <row r="31" spans="2:48">
+      <c r="B31" s="102">
         <v>25</v>
       </c>
-      <c r="C29" s="90" t="s">
+      <c r="C31" s="100" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="102"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="96"/>
-      <c r="J29" s="96"/>
-      <c r="L29" s="96"/>
-      <c r="M29" s="96"/>
-      <c r="N29" s="112"/>
-      <c r="O29" s="113"/>
-      <c r="P29" s="96"/>
-      <c r="Q29" s="96"/>
-      <c r="R29" s="96"/>
-    </row>
-    <row r="30" spans="2:46">
-      <c r="B30" s="101">
+      <c r="D31" s="103"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="94"/>
+      <c r="J31" s="94"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="113"/>
+      <c r="O31" s="114"/>
+      <c r="P31" s="94"/>
+      <c r="Q31" s="94"/>
+      <c r="R31" s="94"/>
+    </row>
+    <row r="32" spans="2:48">
+      <c r="B32" s="102">
         <v>26</v>
       </c>
-      <c r="C30" s="90" t="s">
+      <c r="C32" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="102"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="L30" s="96"/>
-      <c r="M30" s="96"/>
-      <c r="N30" s="112"/>
-      <c r="O30" s="113"/>
-      <c r="P30" s="96"/>
-      <c r="Q30" s="96"/>
-      <c r="R30" s="96"/>
-    </row>
-    <row r="31" spans="2:46">
-      <c r="B31" s="101">
+      <c r="D32" s="103"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="94"/>
+      <c r="L32" s="94"/>
+      <c r="M32" s="94"/>
+      <c r="N32" s="113"/>
+      <c r="O32" s="114"/>
+      <c r="P32" s="94"/>
+      <c r="Q32" s="94"/>
+      <c r="R32" s="94"/>
+    </row>
+    <row r="33" spans="2:18">
+      <c r="B33" s="102">
         <v>27</v>
       </c>
-      <c r="C31" s="90" t="s">
+      <c r="C33" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="102"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="96"/>
-      <c r="L31" s="96"/>
-      <c r="M31" s="96"/>
-      <c r="N31" s="112"/>
-      <c r="O31" s="113"/>
-      <c r="P31" s="96"/>
-      <c r="Q31" s="96"/>
-      <c r="R31" s="96"/>
-    </row>
-    <row r="32" spans="2:46">
-      <c r="B32" s="101">
+      <c r="D33" s="103"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="94"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="113"/>
+      <c r="O33" s="114"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="94"/>
+    </row>
+    <row r="34" spans="2:18">
+      <c r="B34" s="102">
         <v>28</v>
       </c>
-      <c r="C32" s="90" t="s">
+      <c r="C34" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="102"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="96"/>
-      <c r="J32" s="96"/>
-      <c r="L32" s="96"/>
-      <c r="M32" s="96"/>
-      <c r="N32" s="112"/>
-      <c r="O32" s="113"/>
-      <c r="P32" s="96"/>
-      <c r="Q32" s="96"/>
-      <c r="R32" s="96"/>
-    </row>
-    <row r="33" spans="2:18">
-      <c r="B33" s="101">
+      <c r="D34" s="103"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="94"/>
+      <c r="L34" s="94"/>
+      <c r="M34" s="94"/>
+      <c r="N34" s="113"/>
+      <c r="O34" s="114"/>
+      <c r="P34" s="94"/>
+      <c r="Q34" s="94"/>
+      <c r="R34" s="94"/>
+    </row>
+    <row r="35" spans="2:18">
+      <c r="B35" s="102">
         <v>29</v>
       </c>
-      <c r="C33" s="90" t="s">
+      <c r="C35" s="100" t="s">
         <v>101</v>
       </c>
-      <c r="D33" s="102"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="96"/>
-      <c r="J33" s="96"/>
-      <c r="L33" s="96"/>
-      <c r="M33" s="96"/>
-      <c r="N33" s="112"/>
-      <c r="O33" s="113"/>
-      <c r="P33" s="96"/>
-      <c r="Q33" s="96"/>
-      <c r="R33" s="96"/>
-    </row>
-    <row r="34" spans="2:18">
-      <c r="B34" s="101">
+      <c r="D35" s="103"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="94"/>
+      <c r="L35" s="94"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="113"/>
+      <c r="O35" s="114"/>
+      <c r="P35" s="94"/>
+      <c r="Q35" s="94"/>
+      <c r="R35" s="94"/>
+    </row>
+    <row r="36" spans="2:18">
+      <c r="B36" s="102">
         <v>30</v>
       </c>
-      <c r="C34" s="90" t="s">
+      <c r="C36" s="100" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="102"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="96"/>
-      <c r="I34" s="96"/>
-      <c r="J34" s="96"/>
-      <c r="L34" s="96"/>
-      <c r="M34" s="96"/>
-      <c r="N34" s="112"/>
-      <c r="O34" s="113"/>
-      <c r="P34" s="96"/>
-      <c r="Q34" s="96"/>
-      <c r="R34" s="96"/>
-    </row>
-    <row r="35" spans="2:18">
-      <c r="B35" s="101">
+      <c r="D36" s="103"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="94"/>
+      <c r="I36" s="94"/>
+      <c r="J36" s="94"/>
+      <c r="L36" s="94"/>
+      <c r="M36" s="94"/>
+      <c r="N36" s="113"/>
+      <c r="O36" s="114"/>
+      <c r="P36" s="94"/>
+      <c r="Q36" s="94"/>
+      <c r="R36" s="94"/>
+    </row>
+    <row r="37" spans="2:18">
+      <c r="B37" s="102">
         <v>31</v>
       </c>
-      <c r="C35" s="90" t="s">
+      <c r="C37" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="102"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="96"/>
-      <c r="J35" s="96"/>
-      <c r="L35" s="96"/>
-      <c r="M35" s="96"/>
-      <c r="N35" s="112"/>
-      <c r="O35" s="113"/>
-      <c r="P35" s="96"/>
-      <c r="Q35" s="96"/>
-      <c r="R35" s="96"/>
-    </row>
-    <row r="36" spans="2:18">
-      <c r="B36" s="101">
+      <c r="D37" s="103"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="94"/>
+      <c r="I37" s="94"/>
+      <c r="J37" s="94"/>
+      <c r="L37" s="94"/>
+      <c r="M37" s="94"/>
+      <c r="N37" s="113"/>
+      <c r="O37" s="114"/>
+      <c r="P37" s="94"/>
+      <c r="Q37" s="94"/>
+      <c r="R37" s="94"/>
+    </row>
+    <row r="38" spans="2:18">
+      <c r="B38" s="102">
         <v>32</v>
       </c>
-      <c r="C36" s="90" t="s">
+      <c r="C38" s="100" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="102"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="96"/>
-      <c r="I36" s="96"/>
-      <c r="J36" s="96"/>
-      <c r="L36" s="96"/>
-      <c r="M36" s="96"/>
-      <c r="N36" s="112"/>
-      <c r="O36" s="113"/>
-      <c r="P36" s="96"/>
-      <c r="Q36" s="96"/>
-      <c r="R36" s="96"/>
-    </row>
-    <row r="37" spans="2:18">
-      <c r="B37" s="101">
+      <c r="D38" s="103"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="94"/>
+      <c r="I38" s="94"/>
+      <c r="J38" s="94"/>
+      <c r="L38" s="94"/>
+      <c r="M38" s="94"/>
+      <c r="N38" s="113"/>
+      <c r="O38" s="114"/>
+      <c r="P38" s="94"/>
+      <c r="Q38" s="94"/>
+      <c r="R38" s="94"/>
+    </row>
+    <row r="39" spans="2:18">
+      <c r="B39" s="102">
         <v>33</v>
       </c>
-      <c r="C37" s="90" t="s">
+      <c r="C39" s="100" t="s">
         <v>105</v>
       </c>
-      <c r="D37" s="102"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="90"/>
-      <c r="G37" s="104"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="96"/>
-      <c r="J37" s="96"/>
-      <c r="L37" s="96"/>
-      <c r="M37" s="96"/>
-      <c r="N37" s="112"/>
-      <c r="O37" s="113"/>
-      <c r="P37" s="96"/>
-      <c r="Q37" s="96"/>
-      <c r="R37" s="96"/>
-    </row>
-    <row r="38" spans="2:18">
-      <c r="B38" s="101">
+      <c r="D39" s="103"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="94"/>
+      <c r="I39" s="94"/>
+      <c r="J39" s="94"/>
+      <c r="L39" s="94"/>
+      <c r="M39" s="94"/>
+      <c r="N39" s="113"/>
+      <c r="O39" s="114"/>
+      <c r="P39" s="94"/>
+      <c r="Q39" s="94"/>
+      <c r="R39" s="94"/>
+    </row>
+    <row r="40" spans="2:18">
+      <c r="B40" s="102">
         <v>34</v>
       </c>
-      <c r="C38" s="90" t="s">
+      <c r="C40" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="D38" s="102"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="96"/>
-      <c r="I38" s="96"/>
-      <c r="J38" s="96"/>
-      <c r="L38" s="96"/>
-      <c r="M38" s="96"/>
-      <c r="N38" s="112"/>
-      <c r="O38" s="113"/>
-      <c r="P38" s="96"/>
-      <c r="Q38" s="96"/>
-      <c r="R38" s="96"/>
-    </row>
-    <row r="39" spans="2:18">
-      <c r="B39" s="101">
+      <c r="D40" s="103"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="105"/>
+      <c r="H40" s="94"/>
+      <c r="I40" s="94"/>
+      <c r="J40" s="94"/>
+      <c r="L40" s="94"/>
+      <c r="M40" s="94"/>
+      <c r="N40" s="113"/>
+      <c r="O40" s="114"/>
+      <c r="P40" s="94"/>
+      <c r="Q40" s="94"/>
+      <c r="R40" s="94"/>
+    </row>
+    <row r="41" spans="2:18">
+      <c r="B41" s="102">
         <v>35</v>
       </c>
-      <c r="C39" s="90" t="s">
+      <c r="C41" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="D39" s="102"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="104"/>
-      <c r="H39" s="96"/>
-      <c r="I39" s="96"/>
-      <c r="J39" s="96"/>
-      <c r="L39" s="96"/>
-      <c r="M39" s="96"/>
-      <c r="N39" s="112"/>
-      <c r="O39" s="113"/>
-      <c r="P39" s="96"/>
-      <c r="Q39" s="96"/>
-      <c r="R39" s="96"/>
-    </row>
-    <row r="40" spans="2:18">
-      <c r="B40" s="101">
+      <c r="D41" s="103"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="105"/>
+      <c r="H41" s="94"/>
+      <c r="I41" s="94"/>
+      <c r="J41" s="94"/>
+      <c r="L41" s="94"/>
+      <c r="M41" s="94"/>
+      <c r="N41" s="113"/>
+      <c r="O41" s="114"/>
+      <c r="P41" s="94"/>
+      <c r="Q41" s="94"/>
+      <c r="R41" s="94"/>
+    </row>
+    <row r="42" spans="2:18">
+      <c r="B42" s="102">
         <v>36</v>
       </c>
-      <c r="C40" s="90" t="s">
+      <c r="C42" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="D40" s="102"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="104"/>
-      <c r="H40" s="96"/>
-      <c r="I40" s="96"/>
-      <c r="J40" s="96"/>
-      <c r="L40" s="96"/>
-      <c r="M40" s="96"/>
-      <c r="N40" s="112"/>
-      <c r="O40" s="113"/>
-      <c r="P40" s="96"/>
-      <c r="Q40" s="96"/>
-      <c r="R40" s="96"/>
-    </row>
-    <row r="41" spans="2:18">
-      <c r="B41" s="101">
+      <c r="D42" s="103"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="100"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="94"/>
+      <c r="I42" s="94"/>
+      <c r="J42" s="94"/>
+      <c r="L42" s="94"/>
+      <c r="M42" s="94"/>
+      <c r="N42" s="113"/>
+      <c r="O42" s="114"/>
+      <c r="P42" s="94"/>
+      <c r="Q42" s="94"/>
+      <c r="R42" s="94"/>
+    </row>
+    <row r="43" spans="2:18">
+      <c r="B43" s="102">
         <v>37</v>
       </c>
-      <c r="C41" s="90" t="s">
+      <c r="C43" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="102"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="104"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="96"/>
-      <c r="J41" s="96"/>
-      <c r="L41" s="96"/>
-      <c r="M41" s="96"/>
-      <c r="N41" s="112"/>
-      <c r="O41" s="113"/>
-      <c r="P41" s="96"/>
-      <c r="Q41" s="96"/>
-      <c r="R41" s="96"/>
-    </row>
-    <row r="42" spans="2:18">
-      <c r="B42" s="101">
+      <c r="D43" s="103"/>
+      <c r="E43" s="104"/>
+      <c r="F43" s="100"/>
+      <c r="G43" s="105"/>
+      <c r="H43" s="94"/>
+      <c r="I43" s="94"/>
+      <c r="J43" s="94"/>
+      <c r="L43" s="94"/>
+      <c r="M43" s="94"/>
+      <c r="N43" s="113"/>
+      <c r="O43" s="114"/>
+      <c r="P43" s="94"/>
+      <c r="Q43" s="94"/>
+      <c r="R43" s="94"/>
+    </row>
+    <row r="44" spans="2:18">
+      <c r="B44" s="102">
         <v>38</v>
       </c>
-      <c r="C42" s="90" t="s">
+      <c r="C44" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="D42" s="102"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="96"/>
-      <c r="I42" s="96"/>
-      <c r="J42" s="96"/>
-      <c r="L42" s="96"/>
-      <c r="M42" s="96"/>
-      <c r="N42" s="112"/>
-      <c r="O42" s="113"/>
-      <c r="P42" s="96"/>
-      <c r="Q42" s="96"/>
-      <c r="R42" s="96"/>
-    </row>
-    <row r="43" spans="2:18">
-      <c r="B43" s="101">
+      <c r="D44" s="103"/>
+      <c r="E44" s="104"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="105"/>
+      <c r="H44" s="94"/>
+      <c r="I44" s="94"/>
+      <c r="J44" s="94"/>
+      <c r="L44" s="94"/>
+      <c r="M44" s="94"/>
+      <c r="N44" s="113"/>
+      <c r="O44" s="114"/>
+      <c r="P44" s="94"/>
+      <c r="Q44" s="94"/>
+      <c r="R44" s="94"/>
+    </row>
+    <row r="45" spans="2:18">
+      <c r="B45" s="102">
         <v>39</v>
       </c>
-      <c r="C43" s="90" t="s">
+      <c r="C45" s="100" t="s">
         <v>111</v>
       </c>
-      <c r="D43" s="102"/>
-      <c r="E43" s="103"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="104"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="96"/>
-      <c r="J43" s="96"/>
-      <c r="L43" s="96"/>
-      <c r="M43" s="96"/>
-      <c r="N43" s="112"/>
-      <c r="O43" s="113"/>
-      <c r="P43" s="96"/>
-      <c r="Q43" s="96"/>
-      <c r="R43" s="96"/>
-    </row>
-    <row r="44" spans="2:18" ht="14.25" thickBot="1">
-      <c r="B44" s="106">
+      <c r="D45" s="103"/>
+      <c r="E45" s="104"/>
+      <c r="F45" s="100"/>
+      <c r="G45" s="105"/>
+      <c r="H45" s="94"/>
+      <c r="I45" s="94"/>
+      <c r="J45" s="94"/>
+      <c r="L45" s="94"/>
+      <c r="M45" s="94"/>
+      <c r="N45" s="113"/>
+      <c r="O45" s="114"/>
+      <c r="P45" s="94"/>
+      <c r="Q45" s="94"/>
+      <c r="R45" s="94"/>
+    </row>
+    <row r="46" spans="2:18" ht="13.5" thickBot="1">
+      <c r="B46" s="107">
         <v>40</v>
       </c>
-      <c r="C44" s="110" t="s">
+      <c r="C46" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="D44" s="108"/>
-      <c r="E44" s="109"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="111"/>
-      <c r="H44" s="96"/>
-      <c r="I44" s="96"/>
-      <c r="J44" s="96"/>
-      <c r="L44" s="96"/>
-      <c r="M44" s="96"/>
-      <c r="N44" s="112"/>
-      <c r="O44" s="113"/>
-      <c r="P44" s="96"/>
-      <c r="Q44" s="96"/>
-      <c r="R44" s="96"/>
+      <c r="D46" s="109"/>
+      <c r="E46" s="110"/>
+      <c r="F46" s="111"/>
+      <c r="G46" s="112"/>
+      <c r="H46" s="94"/>
+      <c r="I46" s="94"/>
+      <c r="J46" s="94"/>
+      <c r="L46" s="94"/>
+      <c r="M46" s="94"/>
+      <c r="N46" s="113"/>
+      <c r="O46" s="114"/>
+      <c r="P46" s="94"/>
+      <c r="Q46" s="94"/>
+      <c r="R46" s="94"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AO3:AQ3"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="AB3:AG3"/>
+  <mergeCells count="13">
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AL3:AN3"/>
+    <mergeCell ref="AQ3:AS3"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="AB3:AH3"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AY3:BE3"/>
     <mergeCell ref="V3:V4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -8422,7 +8771,7 @@
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -8563,10 +8912,10 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
       <c r="A1" s="82" t="s">
@@ -8592,11 +8941,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -8605,15 +8954,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="123" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
       <c r="H1" s="87"/>
       <c r="I1" s="87"/>
     </row>
